--- a/points.xlsx
+++ b/points.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\PolylineStationOffsetCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F00C46-94AF-4562-98A6-3771A5CF27AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA3DF6-F0CE-44A3-929A-AA6397ECD50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="8460" windowWidth="21600" windowHeight="7980" xr2:uid="{CDD7EB68-84A8-4A4E-866F-715E2905077B}"/>
+    <workbookView xWindow="4500" yWindow="5670" windowWidth="21600" windowHeight="7980" xr2:uid="{CDD7EB68-84A8-4A4E-866F-715E2905077B}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>250,400</t>
   </si>
   <si>
-    <t>300,50</t>
+    <t>300,150</t>
   </si>
 </sst>
 </file>
@@ -901,9 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8FD1AB-A675-4380-94FE-8B90CD555298}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
